--- a/extras/sample-form/Decryption sample form.xlsx
+++ b/extras/sample-form/Decryption sample form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max.s.haberman/Documents/SurveyCTO code/Field plug-ins by Max/In progress/decrypt/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB87F810-4A73-0A42-A524-0F81EFC780E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB66BE8C-D343-814D-8412-1E4BDA1A468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="16640" tabRatio="534" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="16640" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="392">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2570,6 +2570,13 @@
   </si>
   <si>
     <t>decryption_sample_form</t>
+  </si>
+  <si>
+    <t>intro</t>
+  </si>
+  <si>
+    <t>This sampel form demonstrates the "decrypt" field plug-in.
+The passkey for this demo is "password".</t>
   </si>
 </sst>
 </file>
@@ -3310,6 +3317,7 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3373,7 +3381,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="108">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -4835,13 +4842,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5030,67 +5037,65 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>363</v>
+        <v>390</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>390</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="N11" s="92" t="s">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="N13" s="71" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="N12" s="92" t="s">
+      <c r="N14" s="71" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="16" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B16" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K16" s="9" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -5098,24 +5103,32 @@
         <v>120</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N19" s="9" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -5123,38 +5136,30 @@
         <v>68</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>382</v>
+        <v>375</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -5162,20 +5167,42 @@
         <v>120</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N26" s="9" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="136" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+    <row r="28" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5436,7 +5463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5480,7 +5507,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2401241953</v>
+        <v>2401251504</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>362</v>
@@ -5515,26 +5542,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
     </row>
     <row r="3" spans="1:30" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>299</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="80"/>
     </row>
     <row r="4" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>325</v>
       </c>
-      <c r="B4" s="83"/>
+      <c r="B4" s="84"/>
     </row>
     <row r="6" spans="1:30" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="53" t="s">
@@ -5799,10 +5826,10 @@
       </c>
     </row>
     <row r="10" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -8825,19 +8852,19 @@
       <c r="AD89" s="32"/>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A91" s="81" t="s">
+      <c r="A91" s="82" t="s">
         <v>291</v>
       </c>
-      <c r="B91" s="81"/>
+      <c r="B91" s="82"/>
       <c r="C91" s="42"/>
       <c r="D91" s="43"/>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A92" s="71" t="s">
+      <c r="A92" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="B92" s="72"/>
-      <c r="C92" s="73"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="74"/>
       <c r="D92" s="43"/>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
@@ -9831,38 +9858,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="44"/>
       <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="80"/>
     </row>
     <row r="4" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="85" t="s">
         <v>322</v>
       </c>
-      <c r="B4" s="85"/>
+      <c r="B4" s="86"/>
     </row>
     <row r="5" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="85" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="85"/>
+      <c r="B5" s="86"/>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>324</v>
       </c>
-      <c r="B6" s="83"/>
+      <c r="B6" s="84"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
@@ -9957,28 +9984,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="90"/>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="87"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
